--- a/updated-analysis.xlsx
+++ b/updated-analysis.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelia\OneDrive\Desktop\git\WoW-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8F74A0-61D5-44F4-9CAC-9BEAE43126F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27B4A6-63A2-4BDA-93B3-7989321D3382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13608" yWindow="2664" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated Maps" sheetId="1" r:id="rId1"/>
+    <sheet name="map-counts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="1653">
   <si>
     <t>Index</t>
   </si>
@@ -4973,6 +4974,12 @@
   </si>
   <si>
     <t>00:01:36</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>map-frequency</t>
   </si>
 </sst>
 </file>
@@ -5377,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -56909,4 +56916,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4DBB1A-8E25-4ADF-AEBD-5546310BF444}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>